--- a/XSTZ_Test_framework/report/TestSuite.xlsx
+++ b/XSTZ_Test_framework/report/TestSuite.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F25D7F-D80B-4094-BC1A-211580FC428E}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{44DC726B-BA4A-4292-990A-6717DC608A31}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13425" windowHeight="7575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="WEB端" sheetId="1" r:id="rId1"/>
+    <sheet name="Android端" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$179</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">WEB端!$A$1:$E$179</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="98">
   <si>
     <t xml:space="preserve"> login</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,45 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-      </rPr>
-      <t>匹配欢迎信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>“</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欢迎您！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Monaco"/>
-      </rPr>
-      <t>”</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>退出浏览器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -429,10 +391,6 @@
   </si>
   <si>
     <t>网上存款--&gt;支付通道--&gt;工商银行跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XSTZ自动化测试测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -553,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跳转第三方支付通道，状态码200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Channel2_ICBC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -598,13 +552,87 @@
   </si>
   <si>
     <t>Channel2_CIB</t>
+  </si>
+  <si>
+    <t>获取测试账号“52000312”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付页面跳转“网银支付按键”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入APP主程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com.xsjinye.xsforex(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序名</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击“网上存款”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出主程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payway_channel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网上存款，支付通道跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择金额，随机选择银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取订单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取支付跳转页面“测试账号姓名”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSTZ_Android测试测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XSTZ_Web测试测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,20 +688,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Monaco"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -704,6 +718,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -751,7 +773,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -772,17 +794,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -790,15 +809,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A136" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1099,12 +1118,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
@@ -1154,8 +1173,8 @@
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>13</v>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -1173,10 +1192,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -1223,19 +1242,19 @@
         <v>3</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="8" t="s">
-        <v>70</v>
+      <c r="E12" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>4</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>14</v>
+      <c r="C13" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
@@ -1243,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -1293,10 +1312,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
@@ -1304,19 +1323,19 @@
         <v>4</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="15">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -1324,10 +1343,10 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -1374,53 +1393,53 @@
         <v>3</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="4">
         <v>4</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="14"/>
+        <v>67</v>
+      </c>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="4">
         <v>5</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="4">
         <v>6</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="C30" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>51</v>
+        <v>72</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -1467,53 +1486,53 @@
         <v>3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E36" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E36" s="10"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="4">
         <v>4</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="4">
         <v>5</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>25</v>
+      <c r="C38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="4">
         <v>6</v>
       </c>
-      <c r="C39" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
+      <c r="C39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>50</v>
+        <v>73</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E41" s="2"/>
     </row>
@@ -1528,7 +1547,7 @@
         <v>9</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -1560,53 +1579,53 @@
         <v>3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B46" s="4">
         <v>4</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B47" s="4">
         <v>5</v>
       </c>
-      <c r="C47" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13" t="s">
-        <v>24</v>
+      <c r="C47" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" s="4">
         <v>6</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
+      <c r="C48" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -1621,7 +1640,7 @@
         <v>9</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -1653,53 +1672,53 @@
         <v>3</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E54" s="10"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B55" s="4">
         <v>4</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E55" s="13"/>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B56" s="4">
         <v>5</v>
       </c>
-      <c r="C56" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13" t="s">
-        <v>26</v>
+      <c r="C56" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" s="4">
         <v>6</v>
       </c>
-      <c r="C57" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+      <c r="C57" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>48</v>
+        <v>75</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="E59" s="2"/>
     </row>
@@ -1714,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -1746,53 +1765,53 @@
         <v>3</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E63" s="10"/>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B64" s="4">
         <v>4</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B65" s="4">
         <v>5</v>
       </c>
-      <c r="C65" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13" t="s">
+      <c r="C65" s="15" t="s">
         <v>27</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="4">
         <v>6</v>
       </c>
-      <c r="C66" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+      <c r="C66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>47</v>
+        <v>76</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="E68" s="2"/>
     </row>
@@ -1807,7 +1826,7 @@
         <v>9</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -1839,53 +1858,53 @@
         <v>3</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E72" s="10"/>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B73" s="4">
         <v>4</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E73" s="13"/>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B74" s="4">
         <v>5</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C74" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B75" s="4">
         <v>6</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="C75" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>46</v>
+        <v>77</v>
+      </c>
+      <c r="D77" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="E77" s="2"/>
     </row>
@@ -1900,7 +1919,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
@@ -1932,53 +1951,53 @@
         <v>3</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="4">
         <v>4</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E82" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E82" s="13"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="4">
         <v>5</v>
       </c>
-      <c r="C83" s="16" t="s">
+      <c r="C83" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="4">
         <v>6</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="C84" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E86" s="2"/>
     </row>
@@ -1993,7 +2012,7 @@
         <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
@@ -2025,53 +2044,53 @@
         <v>3</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E90" s="10"/>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="4">
         <v>4</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E91" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E91" s="13"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="4">
         <v>5</v>
       </c>
-      <c r="C92" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" s="13"/>
-      <c r="E92" s="13" t="s">
+      <c r="C92" s="15" t="s">
         <v>33</v>
+      </c>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="4">
         <v>6</v>
       </c>
-      <c r="C93" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
+      <c r="C93" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>45</v>
+        <v>78</v>
+      </c>
+      <c r="D95" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="E95" s="2"/>
     </row>
@@ -2086,7 +2105,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.2">
@@ -2118,53 +2137,53 @@
         <v>3</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E99" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E99" s="10"/>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="4">
         <v>4</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E100" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E100" s="13"/>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="4">
         <v>5</v>
       </c>
-      <c r="C101" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13" t="s">
+      <c r="C101" s="15" t="s">
         <v>33</v>
+      </c>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="4">
         <v>6</v>
       </c>
-      <c r="C102" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
+      <c r="C102" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D104" s="9" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E104" s="2"/>
     </row>
@@ -2179,7 +2198,7 @@
         <v>9</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.2">
@@ -2211,53 +2230,53 @@
         <v>3</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E108" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B109" s="4">
         <v>4</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E109" s="13"/>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B110" s="4">
         <v>5</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" s="12"/>
+      <c r="E110" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="D110" s="13"/>
-      <c r="E110" s="14" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B111" s="4">
         <v>6</v>
       </c>
-      <c r="C111" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D111" s="13"/>
-      <c r="E111" s="13"/>
+      <c r="C111" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B113" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>43</v>
+        <v>80</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E113" s="2"/>
     </row>
@@ -2272,7 +2291,7 @@
         <v>9</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.2">
@@ -2304,53 +2323,53 @@
         <v>3</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E117" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E117" s="10"/>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B118" s="4">
         <v>4</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E118" s="13"/>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B119" s="4">
         <v>5</v>
       </c>
-      <c r="C119" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D119" s="13"/>
-      <c r="E119" s="14" t="s">
+      <c r="C119" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="D119" s="12"/>
+      <c r="E119" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B120" s="4">
         <v>6</v>
       </c>
-      <c r="C120" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
+      <c r="C120" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B122" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>42</v>
+        <v>81</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E122" s="2"/>
     </row>
@@ -2365,7 +2384,7 @@
         <v>9</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.2">
@@ -2397,53 +2416,53 @@
         <v>3</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E126" s="10"/>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B127" s="4">
         <v>4</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E127" s="13"/>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B128" s="4">
         <v>5</v>
       </c>
-      <c r="C128" s="16" t="s">
+      <c r="C128" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" s="12"/>
+      <c r="E128" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="D128" s="13"/>
-      <c r="E128" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B129" s="4">
         <v>6</v>
       </c>
-      <c r="C129" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
+      <c r="C129" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" s="12"/>
+      <c r="E129" s="12"/>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>41</v>
+        <v>82</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="E131" s="2"/>
     </row>
@@ -2458,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="E132" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.2">
@@ -2490,53 +2509,53 @@
         <v>3</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E135" s="10"/>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B136" s="4">
         <v>4</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E136" s="13"/>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B137" s="4">
         <v>5</v>
       </c>
-      <c r="C137" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D137" s="13"/>
-      <c r="E137" s="14" t="s">
-        <v>54</v>
+      <c r="C137" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B138" s="4">
         <v>6</v>
       </c>
-      <c r="C138" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D138" s="13"/>
-      <c r="E138" s="13"/>
+      <c r="C138" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>56</v>
+        <v>83</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="E140" s="2"/>
     </row>
@@ -2551,7 +2570,7 @@
         <v>9</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.2">
@@ -2583,53 +2602,53 @@
         <v>3</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E144" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E144" s="10"/>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="4">
         <v>4</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E145" s="13"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="4">
         <v>5</v>
       </c>
-      <c r="C146" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="D146" s="13"/>
-      <c r="E146" s="14" t="s">
-        <v>58</v>
+      <c r="C146" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D146" s="12"/>
+      <c r="E146" s="13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="4">
         <v>6</v>
       </c>
-      <c r="C147" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D147" s="13"/>
-      <c r="E147" s="13"/>
+      <c r="C147" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>59</v>
+        <v>84</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="E149" s="2"/>
     </row>
@@ -2644,7 +2663,7 @@
         <v>9</v>
       </c>
       <c r="E150" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
@@ -2676,53 +2695,53 @@
         <v>3</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E153" s="10"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B154" s="4">
         <v>4</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="14"/>
+        <v>16</v>
+      </c>
+      <c r="E154" s="13"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="4">
         <v>5</v>
       </c>
-      <c r="C155" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D155" s="13"/>
-      <c r="E155" s="19" t="s">
-        <v>61</v>
+      <c r="C155" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="4">
         <v>6</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
+      <c r="C156" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B158" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E158" s="2"/>
     </row>
@@ -2737,7 +2756,7 @@
         <v>9</v>
       </c>
       <c r="E159" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
@@ -2745,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E160" s="4"/>
     </row>
@@ -2756,25 +2775,25 @@
       <c r="B161" s="4">
         <v>2</v>
       </c>
-      <c r="C161" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D161" s="17" t="s">
+      <c r="C161" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="11" t="s">
         <v>66</v>
-      </c>
-      <c r="E161" s="12" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B162" s="4">
         <v>3</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D162" s="13"/>
-      <c r="E162" s="13"/>
+      <c r="C162" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2804,4 +2823,379 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId19"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74EA5571-BAAE-45AC-9CDE-D0084A15ECED}">
+  <dimension ref="B1:E162"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="0.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="8" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B13" s="4">
+        <v>4</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="14">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>